--- a/Data_Sources_and_Preparation/ITC_Trade_Data/841840_CHN_all.xlsx
+++ b/Data_Sources_and_Preparation/ITC_Trade_Data/841840_CHN_all.xlsx
@@ -488,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM142"/>
+  <dimension ref="A1:AM145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16960,6 +16960,363 @@
         <v>1080</v>
       </c>
     </row>
+    <row r="143" spans="1:39">
+      <c r="A143">
+        <v>1481</v>
+      </c>
+      <c r="B143">
+        <v>26439</v>
+      </c>
+      <c r="C143">
+        <v>8585</v>
+      </c>
+      <c r="D143">
+        <v>715</v>
+      </c>
+      <c r="E143">
+        <v>1228</v>
+      </c>
+      <c r="F143">
+        <v>1181</v>
+      </c>
+      <c r="G143">
+        <v>201801</v>
+      </c>
+      <c r="H143">
+        <v>2018</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1813</v>
+      </c>
+      <c r="K143">
+        <v>1895</v>
+      </c>
+      <c r="L143">
+        <v>2077</v>
+      </c>
+      <c r="M143">
+        <v>1761</v>
+      </c>
+      <c r="N143">
+        <v>1641</v>
+      </c>
+      <c r="O143">
+        <v>24637</v>
+      </c>
+      <c r="P143">
+        <v>26265</v>
+      </c>
+      <c r="Q143">
+        <v>23009</v>
+      </c>
+      <c r="R143">
+        <v>24107</v>
+      </c>
+      <c r="S143">
+        <v>21732</v>
+      </c>
+      <c r="T143">
+        <v>8181</v>
+      </c>
+      <c r="U143">
+        <v>10300</v>
+      </c>
+      <c r="V143">
+        <v>8115</v>
+      </c>
+      <c r="W143">
+        <v>6582</v>
+      </c>
+      <c r="X143">
+        <v>5050</v>
+      </c>
+      <c r="Y143">
+        <v>709</v>
+      </c>
+      <c r="Z143">
+        <v>1077</v>
+      </c>
+      <c r="AA143">
+        <v>840</v>
+      </c>
+      <c r="AB143">
+        <v>1356</v>
+      </c>
+      <c r="AC143">
+        <v>1121</v>
+      </c>
+      <c r="AD143">
+        <v>1441</v>
+      </c>
+      <c r="AE143">
+        <v>1548</v>
+      </c>
+      <c r="AF143">
+        <v>1386</v>
+      </c>
+      <c r="AG143">
+        <v>2138</v>
+      </c>
+      <c r="AH143">
+        <v>1155</v>
+      </c>
+      <c r="AI143">
+        <v>1488</v>
+      </c>
+      <c r="AJ143">
+        <v>1061</v>
+      </c>
+      <c r="AK143">
+        <v>886</v>
+      </c>
+      <c r="AL143">
+        <v>815</v>
+      </c>
+      <c r="AM143">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="144" spans="1:39">
+      <c r="A144">
+        <v>1307</v>
+      </c>
+      <c r="B144">
+        <v>23976</v>
+      </c>
+      <c r="C144">
+        <v>6749</v>
+      </c>
+      <c r="D144">
+        <v>857</v>
+      </c>
+      <c r="E144">
+        <v>1137</v>
+      </c>
+      <c r="F144">
+        <v>1150</v>
+      </c>
+      <c r="G144">
+        <v>201802</v>
+      </c>
+      <c r="H144">
+        <v>2018</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>1481</v>
+      </c>
+      <c r="K144">
+        <v>1813</v>
+      </c>
+      <c r="L144">
+        <v>1895</v>
+      </c>
+      <c r="M144">
+        <v>2152</v>
+      </c>
+      <c r="N144">
+        <v>1216</v>
+      </c>
+      <c r="O144">
+        <v>26439</v>
+      </c>
+      <c r="P144">
+        <v>24637</v>
+      </c>
+      <c r="Q144">
+        <v>26265</v>
+      </c>
+      <c r="R144">
+        <v>25699</v>
+      </c>
+      <c r="S144">
+        <v>16549</v>
+      </c>
+      <c r="T144">
+        <v>8585</v>
+      </c>
+      <c r="U144">
+        <v>8181</v>
+      </c>
+      <c r="V144">
+        <v>10300</v>
+      </c>
+      <c r="W144">
+        <v>6298</v>
+      </c>
+      <c r="X144">
+        <v>4379</v>
+      </c>
+      <c r="Y144">
+        <v>715</v>
+      </c>
+      <c r="Z144">
+        <v>709</v>
+      </c>
+      <c r="AA144">
+        <v>1077</v>
+      </c>
+      <c r="AB144">
+        <v>1062</v>
+      </c>
+      <c r="AC144">
+        <v>570</v>
+      </c>
+      <c r="AD144">
+        <v>1228</v>
+      </c>
+      <c r="AE144">
+        <v>1441</v>
+      </c>
+      <c r="AF144">
+        <v>1548</v>
+      </c>
+      <c r="AG144">
+        <v>1685</v>
+      </c>
+      <c r="AH144">
+        <v>1020</v>
+      </c>
+      <c r="AI144">
+        <v>1181</v>
+      </c>
+      <c r="AJ144">
+        <v>1488</v>
+      </c>
+      <c r="AK144">
+        <v>1061</v>
+      </c>
+      <c r="AL144">
+        <v>2015</v>
+      </c>
+      <c r="AM144">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="145" spans="1:39">
+      <c r="A145">
+        <v>1403</v>
+      </c>
+      <c r="B145">
+        <v>29022</v>
+      </c>
+      <c r="C145">
+        <v>8796</v>
+      </c>
+      <c r="D145">
+        <v>1322</v>
+      </c>
+      <c r="E145">
+        <v>1834</v>
+      </c>
+      <c r="F145">
+        <v>2528</v>
+      </c>
+      <c r="G145">
+        <v>201803</v>
+      </c>
+      <c r="H145">
+        <v>2018</v>
+      </c>
+      <c r="I145">
+        <v>3</v>
+      </c>
+      <c r="J145">
+        <v>1307</v>
+      </c>
+      <c r="K145">
+        <v>1481</v>
+      </c>
+      <c r="L145">
+        <v>1813</v>
+      </c>
+      <c r="M145">
+        <v>2187</v>
+      </c>
+      <c r="N145">
+        <v>1808</v>
+      </c>
+      <c r="O145">
+        <v>23976</v>
+      </c>
+      <c r="P145">
+        <v>26439</v>
+      </c>
+      <c r="Q145">
+        <v>24637</v>
+      </c>
+      <c r="R145">
+        <v>26317</v>
+      </c>
+      <c r="S145">
+        <v>27056</v>
+      </c>
+      <c r="T145">
+        <v>6749</v>
+      </c>
+      <c r="U145">
+        <v>8585</v>
+      </c>
+      <c r="V145">
+        <v>8181</v>
+      </c>
+      <c r="W145">
+        <v>8613</v>
+      </c>
+      <c r="X145">
+        <v>4938</v>
+      </c>
+      <c r="Y145">
+        <v>857</v>
+      </c>
+      <c r="Z145">
+        <v>715</v>
+      </c>
+      <c r="AA145">
+        <v>709</v>
+      </c>
+      <c r="AB145">
+        <v>959</v>
+      </c>
+      <c r="AC145">
+        <v>1117</v>
+      </c>
+      <c r="AD145">
+        <v>1137</v>
+      </c>
+      <c r="AE145">
+        <v>1228</v>
+      </c>
+      <c r="AF145">
+        <v>1441</v>
+      </c>
+      <c r="AG145">
+        <v>1654</v>
+      </c>
+      <c r="AH145">
+        <v>1855</v>
+      </c>
+      <c r="AI145">
+        <v>1150</v>
+      </c>
+      <c r="AJ145">
+        <v>1181</v>
+      </c>
+      <c r="AK145">
+        <v>1488</v>
+      </c>
+      <c r="AL145">
+        <v>1132</v>
+      </c>
+      <c r="AM145">
+        <v>1405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
